--- a/dimensions/UNSD — Methodology.xlsx
+++ b/dimensions/UNSD — Methodology.xlsx
@@ -12,9 +12,11 @@
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$P$253</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$P$253</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$P$253</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$P$255</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$P$255</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$P$255</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$P$255</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sheet1!$A$1:$P$255</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1777" uniqueCount="553">
   <si>
     <t xml:space="preserve">Global_Code</t>
   </si>
@@ -1178,6 +1180,12 @@
   </si>
   <si>
     <t xml:space="preserve">CZE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czech Rep.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czech Republic</t>
   </si>
   <si>
     <t xml:space="preserve">Hungary</t>
@@ -1767,7 +1775,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1786,6 +1794,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1809,26 +1821,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P253"/>
+  <dimension ref="A1:P255"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="1" topLeftCell="L96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="1" topLeftCell="L161" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="A96" activeCellId="0" sqref="A96"/>
-      <selection pane="bottomRight" activeCell="C104" activeCellId="0" sqref="C104"/>
+      <selection pane="bottomLeft" activeCell="A161" activeCellId="0" sqref="A161"/>
+      <selection pane="bottomRight" activeCell="I175" activeCellId="0" sqref="I175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="4.93522267206478"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.5910931174089"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.91902834008097"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.2955465587045"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.2874493927125"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="8.32793522267206"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.04048582995951"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="21.2874493927125"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="5.55465587044534"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.1336032388664"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.4534412955466"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.04858299595142"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="9.46153846153846"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.65587044534413"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.04858299595142"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9009,75 +9020,75 @@
         <v>258</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B174" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C174" s="2" t="n">
+    <row r="174" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C174" s="4" t="n">
         <v>150</v>
       </c>
-      <c r="D174" s="0" t="s">
+      <c r="D174" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="E174" s="2" t="n">
+      <c r="E174" s="4" t="n">
         <v>151</v>
       </c>
-      <c r="F174" s="0" t="s">
+      <c r="F174" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="I174" s="0" t="s">
+      <c r="I174" s="3" t="s">
         <v>384</v>
       </c>
       <c r="J174" s="3" t="str">
         <f aca="false">I174</f>
-        <v>Hungary</v>
-      </c>
-      <c r="K174" s="2" t="n">
-        <v>348</v>
-      </c>
-      <c r="L174" s="0" t="s">
+        <v>Czech Rep.</v>
+      </c>
+      <c r="K174" s="4" t="n">
+        <v>203</v>
+      </c>
+      <c r="L174" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="P174" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="175" s="3" customFormat="true" ht="27.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C175" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E175" s="4" t="n">
+        <v>151</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="I175" s="5" t="s">
         <v>385</v>
-      </c>
-      <c r="P174" s="0" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B175" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C175" s="2" t="n">
-        <v>150</v>
-      </c>
-      <c r="D175" s="0" t="s">
-        <v>376</v>
-      </c>
-      <c r="E175" s="2" t="n">
-        <v>151</v>
-      </c>
-      <c r="F175" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="I175" s="0" t="s">
-        <v>386</v>
       </c>
       <c r="J175" s="3" t="str">
         <f aca="false">I175</f>
-        <v>Poland</v>
-      </c>
-      <c r="K175" s="2" t="n">
-        <v>616</v>
-      </c>
-      <c r="L175" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="P175" s="0" t="s">
+        <v>Czech Republic</v>
+      </c>
+      <c r="K175" s="4" t="n">
+        <v>203</v>
+      </c>
+      <c r="L175" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="P175" s="3" t="s">
         <v>258</v>
       </c>
     </row>
@@ -9101,20 +9112,17 @@
         <v>377</v>
       </c>
       <c r="I176" s="0" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="J176" s="3" t="str">
         <f aca="false">I176</f>
-        <v>Republic of Moldova</v>
+        <v>Hungary</v>
       </c>
       <c r="K176" s="2" t="n">
-        <v>498</v>
+        <v>348</v>
       </c>
       <c r="L176" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="N176" s="0" t="s">
-        <v>30</v>
+        <v>387</v>
       </c>
       <c r="P176" s="0" t="s">
         <v>258</v>
@@ -9140,17 +9148,17 @@
         <v>377</v>
       </c>
       <c r="I177" s="0" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="J177" s="3" t="str">
         <f aca="false">I177</f>
-        <v>Romania</v>
+        <v>Poland</v>
       </c>
       <c r="K177" s="2" t="n">
-        <v>642</v>
+        <v>616</v>
       </c>
       <c r="L177" s="0" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="P177" s="0" t="s">
         <v>258</v>
@@ -9176,55 +9184,58 @@
         <v>377</v>
       </c>
       <c r="I178" s="0" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J178" s="3" t="str">
         <f aca="false">I178</f>
-        <v>Russian Federation</v>
+        <v>Republic of Moldova</v>
       </c>
       <c r="K178" s="2" t="n">
-        <v>643</v>
+        <v>498</v>
       </c>
       <c r="L178" s="0" t="s">
-        <v>393</v>
+        <v>391</v>
+      </c>
+      <c r="N178" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="P178" s="0" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="179" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C179" s="4" t="n">
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C179" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="D179" s="3" t="s">
+      <c r="D179" s="0" t="s">
         <v>376</v>
       </c>
-      <c r="E179" s="4" t="n">
+      <c r="E179" s="2" t="n">
         <v>151</v>
       </c>
-      <c r="F179" s="3" t="s">
+      <c r="F179" s="0" t="s">
         <v>377</v>
       </c>
-      <c r="I179" s="3" t="s">
-        <v>394</v>
+      <c r="I179" s="0" t="s">
+        <v>392</v>
       </c>
       <c r="J179" s="3" t="str">
         <f aca="false">I179</f>
-        <v>Russia</v>
-      </c>
-      <c r="K179" s="4" t="n">
-        <v>643</v>
-      </c>
-      <c r="L179" s="3" t="s">
+        <v>Romania</v>
+      </c>
+      <c r="K179" s="2" t="n">
+        <v>642</v>
+      </c>
+      <c r="L179" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="P179" s="3" t="s">
+      <c r="P179" s="0" t="s">
         <v>258</v>
       </c>
     </row>
@@ -9248,55 +9259,55 @@
         <v>377</v>
       </c>
       <c r="I180" s="0" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J180" s="3" t="str">
         <f aca="false">I180</f>
-        <v>Slovakia</v>
+        <v>Russian Federation</v>
       </c>
       <c r="K180" s="2" t="n">
-        <v>703</v>
+        <v>643</v>
       </c>
       <c r="L180" s="0" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P180" s="0" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B181" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C181" s="2" t="n">
+    <row r="181" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C181" s="4" t="n">
         <v>150</v>
       </c>
-      <c r="D181" s="0" t="s">
+      <c r="D181" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="E181" s="2" t="n">
+      <c r="E181" s="4" t="n">
         <v>151</v>
       </c>
-      <c r="F181" s="0" t="s">
+      <c r="F181" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="I181" s="0" t="s">
-        <v>397</v>
+      <c r="I181" s="3" t="s">
+        <v>396</v>
       </c>
       <c r="J181" s="3" t="str">
         <f aca="false">I181</f>
-        <v>Ukraine</v>
-      </c>
-      <c r="K181" s="2" t="n">
-        <v>804</v>
-      </c>
-      <c r="L181" s="0" t="s">
-        <v>398</v>
-      </c>
-      <c r="P181" s="0" t="s">
+        <v>Russia</v>
+      </c>
+      <c r="K181" s="4" t="n">
+        <v>643</v>
+      </c>
+      <c r="L181" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="P181" s="3" t="s">
         <v>258</v>
       </c>
     </row>
@@ -9314,23 +9325,23 @@
         <v>376</v>
       </c>
       <c r="E182" s="2" t="n">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F182" s="0" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="I182" s="0" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="J182" s="3" t="str">
         <f aca="false">I182</f>
-        <v>Åland Islands</v>
+        <v>Slovakia</v>
       </c>
       <c r="K182" s="2" t="n">
-        <v>248</v>
+        <v>703</v>
       </c>
       <c r="L182" s="0" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="P182" s="0" t="s">
         <v>258</v>
@@ -9350,29 +9361,23 @@
         <v>376</v>
       </c>
       <c r="E183" s="2" t="n">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F183" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="I183" s="0" t="s">
         <v>399</v>
-      </c>
-      <c r="G183" s="2" t="n">
-        <v>830</v>
-      </c>
-      <c r="H183" s="0" t="s">
-        <v>402</v>
-      </c>
-      <c r="I183" s="0" t="s">
-        <v>403</v>
       </c>
       <c r="J183" s="3" t="str">
         <f aca="false">I183</f>
-        <v>Guernsey</v>
+        <v>Ukraine</v>
       </c>
       <c r="K183" s="2" t="n">
-        <v>831</v>
+        <v>804</v>
       </c>
       <c r="L183" s="0" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="P183" s="0" t="s">
         <v>258</v>
@@ -9395,26 +9400,20 @@
         <v>154</v>
       </c>
       <c r="F184" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="G184" s="2" t="n">
-        <v>830</v>
-      </c>
-      <c r="H184" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="I184" s="0" t="s">
         <v>402</v>
-      </c>
-      <c r="I184" s="0" t="s">
-        <v>405</v>
       </c>
       <c r="J184" s="3" t="str">
         <f aca="false">I184</f>
-        <v>Jersey</v>
+        <v>Åland Islands</v>
       </c>
       <c r="K184" s="2" t="n">
-        <v>832</v>
+        <v>248</v>
       </c>
       <c r="L184" s="0" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="P184" s="0" t="s">
         <v>258</v>
@@ -9437,23 +9436,26 @@
         <v>154</v>
       </c>
       <c r="F185" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G185" s="2" t="n">
         <v>830</v>
       </c>
       <c r="H185" s="0" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="I185" s="0" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="J185" s="3" t="str">
         <f aca="false">I185</f>
-        <v>Sark</v>
+        <v>Guernsey</v>
       </c>
       <c r="K185" s="2" t="n">
-        <v>680</v>
+        <v>831</v>
+      </c>
+      <c r="L185" s="0" t="s">
+        <v>406</v>
       </c>
       <c r="P185" s="0" t="s">
         <v>258</v>
@@ -9476,20 +9478,26 @@
         <v>154</v>
       </c>
       <c r="F186" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
+      </c>
+      <c r="G186" s="2" t="n">
+        <v>830</v>
+      </c>
+      <c r="H186" s="0" t="s">
+        <v>404</v>
       </c>
       <c r="I186" s="0" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J186" s="3" t="str">
         <f aca="false">I186</f>
-        <v>Denmark</v>
+        <v>Jersey</v>
       </c>
       <c r="K186" s="2" t="n">
-        <v>208</v>
+        <v>832</v>
       </c>
       <c r="L186" s="0" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="P186" s="0" t="s">
         <v>258</v>
@@ -9512,20 +9520,23 @@
         <v>154</v>
       </c>
       <c r="F187" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
+      </c>
+      <c r="G187" s="2" t="n">
+        <v>830</v>
+      </c>
+      <c r="H187" s="0" t="s">
+        <v>404</v>
       </c>
       <c r="I187" s="0" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J187" s="3" t="str">
         <f aca="false">I187</f>
-        <v>Estonia</v>
+        <v>Sark</v>
       </c>
       <c r="K187" s="2" t="n">
-        <v>233</v>
-      </c>
-      <c r="L187" s="0" t="s">
-        <v>411</v>
+        <v>680</v>
       </c>
       <c r="P187" s="0" t="s">
         <v>258</v>
@@ -9548,20 +9559,20 @@
         <v>154</v>
       </c>
       <c r="F188" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="I188" s="0" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="J188" s="3" t="str">
         <f aca="false">I188</f>
-        <v>Faroe Islands</v>
+        <v>Denmark</v>
       </c>
       <c r="K188" s="2" t="n">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="L188" s="0" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="P188" s="0" t="s">
         <v>258</v>
@@ -9584,20 +9595,20 @@
         <v>154</v>
       </c>
       <c r="F189" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="I189" s="0" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="J189" s="3" t="str">
         <f aca="false">I189</f>
-        <v>Finland</v>
+        <v>Estonia</v>
       </c>
       <c r="K189" s="2" t="n">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="L189" s="0" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="P189" s="0" t="s">
         <v>258</v>
@@ -9620,20 +9631,20 @@
         <v>154</v>
       </c>
       <c r="F190" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="I190" s="0" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J190" s="3" t="str">
         <f aca="false">I190</f>
-        <v>Iceland</v>
+        <v>Faroe Islands</v>
       </c>
       <c r="K190" s="2" t="n">
-        <v>352</v>
+        <v>234</v>
       </c>
       <c r="L190" s="0" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="P190" s="0" t="s">
         <v>258</v>
@@ -9656,20 +9667,20 @@
         <v>154</v>
       </c>
       <c r="F191" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="I191" s="0" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="J191" s="3" t="str">
         <f aca="false">I191</f>
-        <v>Ireland</v>
+        <v>Finland</v>
       </c>
       <c r="K191" s="2" t="n">
-        <v>372</v>
+        <v>246</v>
       </c>
       <c r="L191" s="0" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="P191" s="0" t="s">
         <v>258</v>
@@ -9692,20 +9703,20 @@
         <v>154</v>
       </c>
       <c r="F192" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="I192" s="0" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J192" s="3" t="str">
         <f aca="false">I192</f>
-        <v>Isle of Man</v>
+        <v>Iceland</v>
       </c>
       <c r="K192" s="2" t="n">
-        <v>833</v>
+        <v>352</v>
       </c>
       <c r="L192" s="0" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="P192" s="0" t="s">
         <v>258</v>
@@ -9728,20 +9739,20 @@
         <v>154</v>
       </c>
       <c r="F193" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="I193" s="0" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="J193" s="3" t="str">
         <f aca="false">I193</f>
-        <v>Latvia</v>
+        <v>Ireland</v>
       </c>
       <c r="K193" s="2" t="n">
-        <v>428</v>
+        <v>372</v>
       </c>
       <c r="L193" s="0" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="P193" s="0" t="s">
         <v>258</v>
@@ -9764,20 +9775,20 @@
         <v>154</v>
       </c>
       <c r="F194" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="I194" s="0" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J194" s="3" t="str">
         <f aca="false">I194</f>
-        <v>Lithuania</v>
+        <v>Isle of Man</v>
       </c>
       <c r="K194" s="2" t="n">
-        <v>440</v>
+        <v>833</v>
       </c>
       <c r="L194" s="0" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P194" s="0" t="s">
         <v>258</v>
@@ -9800,20 +9811,20 @@
         <v>154</v>
       </c>
       <c r="F195" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="I195" s="0" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J195" s="3" t="str">
         <f aca="false">I195</f>
-        <v>Norway</v>
+        <v>Latvia</v>
       </c>
       <c r="K195" s="2" t="n">
-        <v>578</v>
+        <v>428</v>
       </c>
       <c r="L195" s="0" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="P195" s="0" t="s">
         <v>258</v>
@@ -9836,20 +9847,20 @@
         <v>154</v>
       </c>
       <c r="F196" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="I196" s="0" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="J196" s="3" t="str">
         <f aca="false">I196</f>
-        <v>Svalbard and Jan Mayen Islands</v>
+        <v>Lithuania</v>
       </c>
       <c r="K196" s="2" t="n">
-        <v>744</v>
+        <v>440</v>
       </c>
       <c r="L196" s="0" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="P196" s="0" t="s">
         <v>258</v>
@@ -9872,20 +9883,20 @@
         <v>154</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="I197" s="0" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="J197" s="3" t="str">
         <f aca="false">I197</f>
-        <v>Sweden</v>
+        <v>Norway</v>
       </c>
       <c r="K197" s="2" t="n">
-        <v>752</v>
+        <v>578</v>
       </c>
       <c r="L197" s="0" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="P197" s="0" t="s">
         <v>258</v>
@@ -9908,58 +9919,58 @@
         <v>154</v>
       </c>
       <c r="F198" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="I198" s="0" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="J198" s="3" t="str">
         <f aca="false">I198</f>
-        <v>United Kingdom of Great Britain and Northern Ireland</v>
+        <v>Svalbard and Jan Mayen Islands</v>
       </c>
       <c r="K198" s="2" t="n">
-        <v>826</v>
+        <v>744</v>
       </c>
       <c r="L198" s="0" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="P198" s="0" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="199" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C199" s="4" t="n">
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C199" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="D199" s="3" t="s">
+      <c r="D199" s="0" t="s">
         <v>376</v>
       </c>
-      <c r="E199" s="4" t="n">
+      <c r="E199" s="2" t="n">
         <v>154</v>
       </c>
-      <c r="F199" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="I199" s="3" t="s">
-        <v>434</v>
+      <c r="F199" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="I199" s="0" t="s">
+        <v>432</v>
       </c>
       <c r="J199" s="3" t="str">
         <f aca="false">I199</f>
-        <v>United Kingdom</v>
-      </c>
-      <c r="K199" s="4" t="n">
-        <v>826</v>
-      </c>
-      <c r="L199" s="3" t="s">
+        <v>Sweden</v>
+      </c>
+      <c r="K199" s="2" t="n">
+        <v>752</v>
+      </c>
+      <c r="L199" s="0" t="s">
         <v>433</v>
       </c>
-      <c r="P199" s="3" t="s">
+      <c r="P199" s="0" t="s">
         <v>258</v>
       </c>
     </row>
@@ -9977,61 +9988,61 @@
         <v>376</v>
       </c>
       <c r="E200" s="2" t="n">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="F200" s="0" t="s">
-        <v>435</v>
+        <v>401</v>
       </c>
       <c r="I200" s="0" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J200" s="3" t="str">
         <f aca="false">I200</f>
-        <v>Albania</v>
+        <v>United Kingdom of Great Britain and Northern Ireland</v>
       </c>
       <c r="K200" s="2" t="n">
-        <v>8</v>
+        <v>826</v>
       </c>
       <c r="L200" s="0" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="P200" s="0" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B201" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C201" s="2" t="n">
+    <row r="201" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C201" s="4" t="n">
         <v>150</v>
       </c>
-      <c r="D201" s="0" t="s">
+      <c r="D201" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="E201" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="F201" s="0" t="s">
-        <v>435</v>
-      </c>
-      <c r="I201" s="0" t="s">
-        <v>438</v>
+      <c r="E201" s="4" t="n">
+        <v>154</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="I201" s="3" t="s">
+        <v>436</v>
       </c>
       <c r="J201" s="3" t="str">
         <f aca="false">I201</f>
-        <v>Andorra</v>
-      </c>
-      <c r="K201" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="L201" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="P201" s="0" t="s">
+        <v>United Kingdom</v>
+      </c>
+      <c r="K201" s="4" t="n">
+        <v>826</v>
+      </c>
+      <c r="L201" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="P201" s="3" t="s">
         <v>258</v>
       </c>
     </row>
@@ -10052,20 +10063,20 @@
         <v>39</v>
       </c>
       <c r="F202" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I202" s="0" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J202" s="3" t="str">
         <f aca="false">I202</f>
-        <v>Bosnia and Herzegovina</v>
+        <v>Albania</v>
       </c>
       <c r="K202" s="2" t="n">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="L202" s="0" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="P202" s="0" t="s">
         <v>258</v>
@@ -10088,20 +10099,20 @@
         <v>39</v>
       </c>
       <c r="F203" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I203" s="0" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J203" s="3" t="str">
         <f aca="false">I203</f>
-        <v>Croatia</v>
+        <v>Andorra</v>
       </c>
       <c r="K203" s="2" t="n">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="L203" s="0" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="P203" s="0" t="s">
         <v>258</v>
@@ -10124,20 +10135,20 @@
         <v>39</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I204" s="0" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J204" s="3" t="str">
         <f aca="false">I204</f>
-        <v>Gibraltar</v>
+        <v>Bosnia and Herzegovina</v>
       </c>
       <c r="K204" s="2" t="n">
-        <v>292</v>
+        <v>70</v>
       </c>
       <c r="L204" s="0" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P204" s="0" t="s">
         <v>258</v>
@@ -10160,20 +10171,20 @@
         <v>39</v>
       </c>
       <c r="F205" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I205" s="0" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="J205" s="3" t="str">
         <f aca="false">I205</f>
-        <v>Greece</v>
+        <v>Croatia</v>
       </c>
       <c r="K205" s="2" t="n">
-        <v>300</v>
+        <v>191</v>
       </c>
       <c r="L205" s="0" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="P205" s="0" t="s">
         <v>258</v>
@@ -10196,20 +10207,20 @@
         <v>39</v>
       </c>
       <c r="F206" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I206" s="0" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="J206" s="3" t="str">
         <f aca="false">I206</f>
-        <v>Holy See</v>
+        <v>Gibraltar</v>
       </c>
       <c r="K206" s="2" t="n">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="L206" s="0" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="P206" s="0" t="s">
         <v>258</v>
@@ -10232,20 +10243,20 @@
         <v>39</v>
       </c>
       <c r="F207" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I207" s="0" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J207" s="3" t="str">
         <f aca="false">I207</f>
-        <v>Italy</v>
+        <v>Greece</v>
       </c>
       <c r="K207" s="2" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="L207" s="0" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="P207" s="0" t="s">
         <v>258</v>
@@ -10268,20 +10279,20 @@
         <v>39</v>
       </c>
       <c r="F208" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I208" s="0" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J208" s="3" t="str">
         <f aca="false">I208</f>
-        <v>Malta</v>
+        <v>Holy See</v>
       </c>
       <c r="K208" s="2" t="n">
-        <v>470</v>
+        <v>336</v>
       </c>
       <c r="L208" s="0" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="P208" s="0" t="s">
         <v>258</v>
@@ -10304,20 +10315,20 @@
         <v>39</v>
       </c>
       <c r="F209" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I209" s="0" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="J209" s="3" t="str">
         <f aca="false">I209</f>
-        <v>Montenegro</v>
+        <v>Italy</v>
       </c>
       <c r="K209" s="2" t="n">
-        <v>499</v>
+        <v>380</v>
       </c>
       <c r="L209" s="0" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P209" s="0" t="s">
         <v>258</v>
@@ -10340,20 +10351,20 @@
         <v>39</v>
       </c>
       <c r="F210" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I210" s="0" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J210" s="3" t="str">
         <f aca="false">I210</f>
-        <v>Portugal</v>
+        <v>Malta</v>
       </c>
       <c r="K210" s="2" t="n">
-        <v>620</v>
+        <v>470</v>
       </c>
       <c r="L210" s="0" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="P210" s="0" t="s">
         <v>258</v>
@@ -10376,20 +10387,20 @@
         <v>39</v>
       </c>
       <c r="F211" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I211" s="0" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J211" s="3" t="str">
         <f aca="false">I211</f>
-        <v>San Marino</v>
+        <v>Montenegro</v>
       </c>
       <c r="K211" s="2" t="n">
-        <v>674</v>
+        <v>499</v>
       </c>
       <c r="L211" s="0" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="P211" s="0" t="s">
         <v>258</v>
@@ -10412,20 +10423,20 @@
         <v>39</v>
       </c>
       <c r="F212" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I212" s="0" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="J212" s="3" t="str">
         <f aca="false">I212</f>
-        <v>Serbia</v>
+        <v>Portugal</v>
       </c>
       <c r="K212" s="2" t="n">
-        <v>688</v>
+        <v>620</v>
       </c>
       <c r="L212" s="0" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="P212" s="0" t="s">
         <v>258</v>
@@ -10448,20 +10459,20 @@
         <v>39</v>
       </c>
       <c r="F213" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I213" s="0" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="J213" s="3" t="str">
         <f aca="false">I213</f>
-        <v>Slovenia</v>
+        <v>San Marino</v>
       </c>
       <c r="K213" s="2" t="n">
-        <v>705</v>
+        <v>674</v>
       </c>
       <c r="L213" s="0" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="P213" s="0" t="s">
         <v>258</v>
@@ -10484,20 +10495,20 @@
         <v>39</v>
       </c>
       <c r="F214" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I214" s="0" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J214" s="3" t="str">
         <f aca="false">I214</f>
-        <v>Spain</v>
+        <v>Serbia</v>
       </c>
       <c r="K214" s="2" t="n">
-        <v>724</v>
+        <v>688</v>
       </c>
       <c r="L214" s="0" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="P214" s="0" t="s">
         <v>258</v>
@@ -10520,23 +10531,20 @@
         <v>39</v>
       </c>
       <c r="F215" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I215" s="0" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="J215" s="3" t="str">
         <f aca="false">I215</f>
-        <v>The former Yugoslav Republic of Macedonia</v>
+        <v>Slovenia</v>
       </c>
       <c r="K215" s="2" t="n">
-        <v>807</v>
+        <v>705</v>
       </c>
       <c r="L215" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="N215" s="0" t="s">
-        <v>30</v>
+        <v>465</v>
       </c>
       <c r="P215" s="0" t="s">
         <v>258</v>
@@ -10556,23 +10564,23 @@
         <v>376</v>
       </c>
       <c r="E216" s="2" t="n">
-        <v>155</v>
+        <v>39</v>
       </c>
       <c r="F216" s="0" t="s">
-        <v>468</v>
+        <v>437</v>
       </c>
       <c r="I216" s="0" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="J216" s="3" t="str">
         <f aca="false">I216</f>
-        <v>Austria</v>
+        <v>Spain</v>
       </c>
       <c r="K216" s="2" t="n">
-        <v>40</v>
+        <v>724</v>
       </c>
       <c r="L216" s="0" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="P216" s="0" t="s">
         <v>258</v>
@@ -10592,23 +10600,26 @@
         <v>376</v>
       </c>
       <c r="E217" s="2" t="n">
-        <v>155</v>
+        <v>39</v>
       </c>
       <c r="F217" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="I217" s="0" t="s">
         <v>468</v>
-      </c>
-      <c r="I217" s="0" t="s">
-        <v>471</v>
       </c>
       <c r="J217" s="3" t="str">
         <f aca="false">I217</f>
-        <v>Belgium</v>
+        <v>The former Yugoslav Republic of Macedonia</v>
       </c>
       <c r="K217" s="2" t="n">
-        <v>56</v>
+        <v>807</v>
       </c>
       <c r="L217" s="0" t="s">
-        <v>472</v>
+        <v>469</v>
+      </c>
+      <c r="N217" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="P217" s="0" t="s">
         <v>258</v>
@@ -10631,20 +10642,20 @@
         <v>155</v>
       </c>
       <c r="F218" s="0" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="I218" s="0" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="J218" s="3" t="str">
         <f aca="false">I218</f>
-        <v>France</v>
+        <v>Austria</v>
       </c>
       <c r="K218" s="2" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="L218" s="0" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="P218" s="0" t="s">
         <v>258</v>
@@ -10667,20 +10678,20 @@
         <v>155</v>
       </c>
       <c r="F219" s="0" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="I219" s="0" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J219" s="3" t="str">
         <f aca="false">I219</f>
-        <v>Germany</v>
+        <v>Belgium</v>
       </c>
       <c r="K219" s="2" t="n">
-        <v>276</v>
+        <v>56</v>
       </c>
       <c r="L219" s="0" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="P219" s="0" t="s">
         <v>258</v>
@@ -10703,20 +10714,20 @@
         <v>155</v>
       </c>
       <c r="F220" s="0" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="I220" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J220" s="3" t="str">
         <f aca="false">I220</f>
-        <v>Liechtenstein</v>
+        <v>France</v>
       </c>
       <c r="K220" s="2" t="n">
-        <v>438</v>
+        <v>250</v>
       </c>
       <c r="L220" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="P220" s="0" t="s">
         <v>258</v>
@@ -10739,20 +10750,20 @@
         <v>155</v>
       </c>
       <c r="F221" s="0" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="I221" s="0" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="J221" s="3" t="str">
         <f aca="false">I221</f>
-        <v>Luxembourg</v>
+        <v>Germany</v>
       </c>
       <c r="K221" s="2" t="n">
-        <v>442</v>
+        <v>276</v>
       </c>
       <c r="L221" s="0" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="P221" s="0" t="s">
         <v>258</v>
@@ -10775,20 +10786,20 @@
         <v>155</v>
       </c>
       <c r="F222" s="0" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="I222" s="0" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="J222" s="3" t="str">
         <f aca="false">I222</f>
-        <v>Monaco</v>
+        <v>Liechtenstein</v>
       </c>
       <c r="K222" s="2" t="n">
-        <v>492</v>
+        <v>438</v>
       </c>
       <c r="L222" s="0" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="P222" s="0" t="s">
         <v>258</v>
@@ -10811,20 +10822,20 @@
         <v>155</v>
       </c>
       <c r="F223" s="0" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="I223" s="0" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="J223" s="3" t="str">
         <f aca="false">I223</f>
-        <v>Netherlands</v>
+        <v>Luxembourg</v>
       </c>
       <c r="K223" s="2" t="n">
-        <v>528</v>
+        <v>442</v>
       </c>
       <c r="L223" s="0" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="P223" s="0" t="s">
         <v>258</v>
@@ -10847,20 +10858,20 @@
         <v>155</v>
       </c>
       <c r="F224" s="0" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="I224" s="0" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="J224" s="3" t="str">
         <f aca="false">I224</f>
-        <v>Switzerland</v>
+        <v>Monaco</v>
       </c>
       <c r="K224" s="2" t="n">
-        <v>756</v>
+        <v>492</v>
       </c>
       <c r="L224" s="0" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="P224" s="0" t="s">
         <v>258</v>
@@ -10874,29 +10885,29 @@
         <v>16</v>
       </c>
       <c r="C225" s="2" t="n">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>487</v>
+        <v>376</v>
       </c>
       <c r="E225" s="2" t="n">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="F225" s="0" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="I225" s="0" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="J225" s="3" t="str">
         <f aca="false">I225</f>
-        <v>Australia</v>
+        <v>Netherlands</v>
       </c>
       <c r="K225" s="2" t="n">
-        <v>36</v>
+        <v>528</v>
       </c>
       <c r="L225" s="0" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="P225" s="0" t="s">
         <v>258</v>
@@ -10910,29 +10921,29 @@
         <v>16</v>
       </c>
       <c r="C226" s="2" t="n">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="D226" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="F226" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="I226" s="0" t="s">
         <v>487</v>
-      </c>
-      <c r="E226" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="F226" s="0" t="s">
-        <v>488</v>
-      </c>
-      <c r="I226" s="0" t="s">
-        <v>491</v>
       </c>
       <c r="J226" s="3" t="str">
         <f aca="false">I226</f>
-        <v>Christmas Island</v>
+        <v>Switzerland</v>
       </c>
       <c r="K226" s="2" t="n">
-        <v>162</v>
+        <v>756</v>
       </c>
       <c r="L226" s="0" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="P226" s="0" t="s">
         <v>258</v>
@@ -10949,26 +10960,26 @@
         <v>9</v>
       </c>
       <c r="D227" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E227" s="2" t="n">
         <v>53</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="I227" s="0" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J227" s="3" t="str">
         <f aca="false">I227</f>
-        <v>Cocos (Keeling) Islands</v>
+        <v>Australia</v>
       </c>
       <c r="K227" s="2" t="n">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="L227" s="0" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="P227" s="0" t="s">
         <v>258</v>
@@ -10985,26 +10996,26 @@
         <v>9</v>
       </c>
       <c r="D228" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E228" s="2" t="n">
         <v>53</v>
       </c>
       <c r="F228" s="0" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="I228" s="0" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J228" s="3" t="str">
         <f aca="false">I228</f>
-        <v>Heard Island and McDonald Islands</v>
+        <v>Christmas Island</v>
       </c>
       <c r="K228" s="2" t="n">
-        <v>334</v>
+        <v>162</v>
       </c>
       <c r="L228" s="0" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="P228" s="0" t="s">
         <v>258</v>
@@ -11021,26 +11032,26 @@
         <v>9</v>
       </c>
       <c r="D229" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E229" s="2" t="n">
         <v>53</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="I229" s="0" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J229" s="3" t="str">
         <f aca="false">I229</f>
-        <v>New Zealand</v>
+        <v>Cocos (Keeling) Islands</v>
       </c>
       <c r="K229" s="2" t="n">
-        <v>554</v>
+        <v>166</v>
       </c>
       <c r="L229" s="0" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="P229" s="0" t="s">
         <v>258</v>
@@ -11057,26 +11068,26 @@
         <v>9</v>
       </c>
       <c r="D230" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E230" s="2" t="n">
         <v>53</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="I230" s="0" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="J230" s="3" t="str">
         <f aca="false">I230</f>
-        <v>Norfolk Island</v>
+        <v>Heard Island and McDonald Islands</v>
       </c>
       <c r="K230" s="2" t="n">
-        <v>574</v>
+        <v>334</v>
       </c>
       <c r="L230" s="0" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="P230" s="0" t="s">
         <v>258</v>
@@ -11093,32 +11104,29 @@
         <v>9</v>
       </c>
       <c r="D231" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E231" s="2" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="I231" s="0" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="J231" s="3" t="str">
         <f aca="false">I231</f>
-        <v>Fiji</v>
+        <v>New Zealand</v>
       </c>
       <c r="K231" s="2" t="n">
-        <v>242</v>
+        <v>554</v>
       </c>
       <c r="L231" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="O231" s="0" t="s">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="P231" s="0" t="s">
-        <v>21</v>
+        <v>258</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11132,32 +11140,29 @@
         <v>9</v>
       </c>
       <c r="D232" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E232" s="2" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F232" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="I232" s="0" t="s">
         <v>501</v>
-      </c>
-      <c r="I232" s="0" t="s">
-        <v>504</v>
       </c>
       <c r="J232" s="3" t="str">
         <f aca="false">I232</f>
-        <v>New Caledonia</v>
+        <v>Norfolk Island</v>
       </c>
       <c r="K232" s="2" t="n">
-        <v>540</v>
+        <v>574</v>
       </c>
       <c r="L232" s="0" t="s">
-        <v>505</v>
-      </c>
-      <c r="O232" s="0" t="s">
-        <v>30</v>
+        <v>502</v>
       </c>
       <c r="P232" s="0" t="s">
-        <v>21</v>
+        <v>258</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11171,26 +11176,26 @@
         <v>9</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E233" s="2" t="n">
         <v>54</v>
       </c>
       <c r="F233" s="0" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I233" s="0" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="J233" s="3" t="str">
         <f aca="false">I233</f>
-        <v>Papua New Guinea</v>
+        <v>Fiji</v>
       </c>
       <c r="K233" s="2" t="n">
-        <v>598</v>
+        <v>242</v>
       </c>
       <c r="L233" s="0" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="O233" s="0" t="s">
         <v>30</v>
@@ -11210,29 +11215,26 @@
         <v>9</v>
       </c>
       <c r="D234" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E234" s="2" t="n">
         <v>54</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I234" s="0" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="J234" s="3" t="str">
         <f aca="false">I234</f>
-        <v>Solomon Islands</v>
+        <v>New Caledonia</v>
       </c>
       <c r="K234" s="2" t="n">
-        <v>90</v>
+        <v>540</v>
       </c>
       <c r="L234" s="0" t="s">
-        <v>509</v>
-      </c>
-      <c r="M234" s="0" t="s">
-        <v>30</v>
+        <v>507</v>
       </c>
       <c r="O234" s="0" t="s">
         <v>30</v>
@@ -11252,29 +11254,26 @@
         <v>9</v>
       </c>
       <c r="D235" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E235" s="2" t="n">
         <v>54</v>
       </c>
       <c r="F235" s="0" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I235" s="0" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="J235" s="3" t="str">
         <f aca="false">I235</f>
-        <v>Vanuatu</v>
+        <v>Papua New Guinea</v>
       </c>
       <c r="K235" s="2" t="n">
-        <v>548</v>
+        <v>598</v>
       </c>
       <c r="L235" s="0" t="s">
-        <v>511</v>
-      </c>
-      <c r="M235" s="0" t="s">
-        <v>30</v>
+        <v>509</v>
       </c>
       <c r="O235" s="0" t="s">
         <v>30</v>
@@ -11294,26 +11293,29 @@
         <v>9</v>
       </c>
       <c r="D236" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E236" s="2" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F236" s="0" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="I236" s="0" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="J236" s="3" t="str">
         <f aca="false">I236</f>
-        <v>Guam</v>
+        <v>Solomon Islands</v>
       </c>
       <c r="K236" s="2" t="n">
-        <v>316</v>
+        <v>90</v>
       </c>
       <c r="L236" s="0" t="s">
-        <v>514</v>
+        <v>511</v>
+      </c>
+      <c r="M236" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="O236" s="0" t="s">
         <v>30</v>
@@ -11333,26 +11335,26 @@
         <v>9</v>
       </c>
       <c r="D237" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E237" s="2" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F237" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="I237" s="0" t="s">
         <v>512</v>
-      </c>
-      <c r="I237" s="0" t="s">
-        <v>515</v>
       </c>
       <c r="J237" s="3" t="str">
         <f aca="false">I237</f>
-        <v>Kiribati</v>
+        <v>Vanuatu</v>
       </c>
       <c r="K237" s="2" t="n">
-        <v>296</v>
+        <v>548</v>
       </c>
       <c r="L237" s="0" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="M237" s="0" t="s">
         <v>30</v>
@@ -11375,26 +11377,26 @@
         <v>9</v>
       </c>
       <c r="D238" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E238" s="2" t="n">
         <v>57</v>
       </c>
       <c r="F238" s="0" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="I238" s="0" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J238" s="3" t="str">
         <f aca="false">I238</f>
-        <v>Marshall Islands</v>
+        <v>Guam</v>
       </c>
       <c r="K238" s="2" t="n">
-        <v>584</v>
+        <v>316</v>
       </c>
       <c r="L238" s="0" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="O238" s="0" t="s">
         <v>30</v>
@@ -11414,26 +11416,29 @@
         <v>9</v>
       </c>
       <c r="D239" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E239" s="2" t="n">
         <v>57</v>
       </c>
       <c r="F239" s="0" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="I239" s="0" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="J239" s="3" t="str">
         <f aca="false">I239</f>
-        <v>Micronesia (Federated States of)</v>
+        <v>Kiribati</v>
       </c>
       <c r="K239" s="2" t="n">
-        <v>583</v>
+        <v>296</v>
       </c>
       <c r="L239" s="0" t="s">
-        <v>520</v>
+        <v>518</v>
+      </c>
+      <c r="M239" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="O239" s="0" t="s">
         <v>30</v>
@@ -11453,26 +11458,26 @@
         <v>9</v>
       </c>
       <c r="D240" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E240" s="2" t="n">
         <v>57</v>
       </c>
       <c r="F240" s="0" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="I240" s="0" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J240" s="3" t="str">
         <f aca="false">I240</f>
-        <v>Nauru</v>
+        <v>Marshall Islands</v>
       </c>
       <c r="K240" s="2" t="n">
+        <v>584</v>
+      </c>
+      <c r="L240" s="0" t="s">
         <v>520</v>
-      </c>
-      <c r="L240" s="0" t="s">
-        <v>522</v>
       </c>
       <c r="O240" s="0" t="s">
         <v>30</v>
@@ -11492,26 +11497,26 @@
         <v>9</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E241" s="2" t="n">
         <v>57</v>
       </c>
       <c r="F241" s="0" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="I241" s="0" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="J241" s="3" t="str">
         <f aca="false">I241</f>
-        <v>Northern Mariana Islands</v>
+        <v>Micronesia (Federated States of)</v>
       </c>
       <c r="K241" s="2" t="n">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="L241" s="0" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="O241" s="0" t="s">
         <v>30</v>
@@ -11531,26 +11536,26 @@
         <v>9</v>
       </c>
       <c r="D242" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E242" s="2" t="n">
         <v>57</v>
       </c>
       <c r="F242" s="0" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="I242" s="0" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="J242" s="3" t="str">
         <f aca="false">I242</f>
-        <v>Palau</v>
+        <v>Nauru</v>
       </c>
       <c r="K242" s="2" t="n">
-        <v>585</v>
+        <v>520</v>
       </c>
       <c r="L242" s="0" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="O242" s="0" t="s">
         <v>30</v>
@@ -11570,26 +11575,29 @@
         <v>9</v>
       </c>
       <c r="D243" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E243" s="2" t="n">
         <v>57</v>
       </c>
       <c r="F243" s="0" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="I243" s="0" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="J243" s="3" t="str">
         <f aca="false">I243</f>
-        <v>United States Minor Outlying Islands</v>
+        <v>Northern Mariana Islands</v>
       </c>
       <c r="K243" s="2" t="n">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L243" s="0" t="s">
-        <v>528</v>
+        <v>526</v>
+      </c>
+      <c r="O243" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="P243" s="0" t="s">
         <v>21</v>
@@ -11606,26 +11614,26 @@
         <v>9</v>
       </c>
       <c r="D244" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E244" s="2" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F244" s="0" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="I244" s="0" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="J244" s="3" t="str">
         <f aca="false">I244</f>
-        <v>American Samoa</v>
+        <v>Palau</v>
       </c>
       <c r="K244" s="2" t="n">
-        <v>16</v>
+        <v>585</v>
       </c>
       <c r="L244" s="0" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="O244" s="0" t="s">
         <v>30</v>
@@ -11645,29 +11653,26 @@
         <v>9</v>
       </c>
       <c r="D245" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E245" s="2" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F245" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="I245" s="0" t="s">
         <v>529</v>
-      </c>
-      <c r="I245" s="0" t="s">
-        <v>532</v>
       </c>
       <c r="J245" s="3" t="str">
         <f aca="false">I245</f>
-        <v>Cook Islands</v>
+        <v>United States Minor Outlying Islands</v>
       </c>
       <c r="K245" s="2" t="n">
-        <v>184</v>
+        <v>581</v>
       </c>
       <c r="L245" s="0" t="s">
-        <v>533</v>
-      </c>
-      <c r="O245" s="0" t="s">
-        <v>30</v>
+        <v>530</v>
       </c>
       <c r="P245" s="0" t="s">
         <v>21</v>
@@ -11684,26 +11689,26 @@
         <v>9</v>
       </c>
       <c r="D246" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E246" s="2" t="n">
         <v>61</v>
       </c>
       <c r="F246" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="I246" s="0" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J246" s="3" t="str">
         <f aca="false">I246</f>
-        <v>French Polynesia</v>
+        <v>American Samoa</v>
       </c>
       <c r="K246" s="2" t="n">
-        <v>258</v>
+        <v>16</v>
       </c>
       <c r="L246" s="0" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="O246" s="0" t="s">
         <v>30</v>
@@ -11723,26 +11728,26 @@
         <v>9</v>
       </c>
       <c r="D247" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E247" s="2" t="n">
         <v>61</v>
       </c>
       <c r="F247" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="I247" s="0" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="J247" s="3" t="str">
         <f aca="false">I247</f>
-        <v>Niue</v>
+        <v>Cook Islands</v>
       </c>
       <c r="K247" s="2" t="n">
-        <v>570</v>
+        <v>184</v>
       </c>
       <c r="L247" s="0" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="O247" s="0" t="s">
         <v>30</v>
@@ -11762,26 +11767,29 @@
         <v>9</v>
       </c>
       <c r="D248" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E248" s="2" t="n">
         <v>61</v>
       </c>
       <c r="F248" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="I248" s="0" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J248" s="3" t="str">
         <f aca="false">I248</f>
-        <v>Pitcairn</v>
+        <v>French Polynesia</v>
       </c>
       <c r="K248" s="2" t="n">
-        <v>612</v>
+        <v>258</v>
       </c>
       <c r="L248" s="0" t="s">
-        <v>539</v>
+        <v>537</v>
+      </c>
+      <c r="O248" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="P248" s="0" t="s">
         <v>21</v>
@@ -11798,26 +11806,26 @@
         <v>9</v>
       </c>
       <c r="D249" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E249" s="2" t="n">
         <v>61</v>
       </c>
       <c r="F249" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="I249" s="0" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="J249" s="3" t="str">
         <f aca="false">I249</f>
-        <v>Samoa</v>
+        <v>Niue</v>
       </c>
       <c r="K249" s="2" t="n">
-        <v>882</v>
+        <v>570</v>
       </c>
       <c r="L249" s="0" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="O249" s="0" t="s">
         <v>30</v>
@@ -11837,26 +11845,26 @@
         <v>9</v>
       </c>
       <c r="D250" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E250" s="2" t="n">
         <v>61</v>
       </c>
       <c r="F250" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="I250" s="0" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J250" s="3" t="str">
         <f aca="false">I250</f>
-        <v>Tokelau</v>
+        <v>Pitcairn</v>
       </c>
       <c r="K250" s="2" t="n">
-        <v>772</v>
+        <v>612</v>
       </c>
       <c r="L250" s="0" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="P250" s="0" t="s">
         <v>21</v>
@@ -11873,26 +11881,26 @@
         <v>9</v>
       </c>
       <c r="D251" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E251" s="2" t="n">
         <v>61</v>
       </c>
       <c r="F251" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="I251" s="0" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="J251" s="3" t="str">
         <f aca="false">I251</f>
-        <v>Tonga</v>
+        <v>Samoa</v>
       </c>
       <c r="K251" s="2" t="n">
-        <v>776</v>
+        <v>882</v>
       </c>
       <c r="L251" s="0" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="O251" s="0" t="s">
         <v>30</v>
@@ -11912,32 +11920,26 @@
         <v>9</v>
       </c>
       <c r="D252" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E252" s="2" t="n">
         <v>61</v>
       </c>
       <c r="F252" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="I252" s="0" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="J252" s="3" t="str">
         <f aca="false">I252</f>
-        <v>Tuvalu</v>
+        <v>Tokelau</v>
       </c>
       <c r="K252" s="2" t="n">
-        <v>798</v>
+        <v>772</v>
       </c>
       <c r="L252" s="0" t="s">
-        <v>547</v>
-      </c>
-      <c r="M252" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="O252" s="0" t="s">
-        <v>30</v>
+        <v>545</v>
       </c>
       <c r="P252" s="0" t="s">
         <v>21</v>
@@ -11954,33 +11956,114 @@
         <v>9</v>
       </c>
       <c r="D253" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E253" s="2" t="n">
         <v>61</v>
       </c>
       <c r="F253" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="I253" s="0" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="J253" s="3" t="str">
         <f aca="false">I253</f>
+        <v>Tonga</v>
+      </c>
+      <c r="K253" s="2" t="n">
+        <v>776</v>
+      </c>
+      <c r="L253" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="O253" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="P253" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B254" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C254" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D254" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="E254" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="F254" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="I254" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="J254" s="3" t="str">
+        <f aca="false">I254</f>
+        <v>Tuvalu</v>
+      </c>
+      <c r="K254" s="2" t="n">
+        <v>798</v>
+      </c>
+      <c r="L254" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="M254" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O254" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="P254" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B255" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C255" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D255" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="E255" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="F255" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="I255" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="J255" s="3" t="str">
+        <f aca="false">I255</f>
         <v>Wallis and Futuna Islands</v>
       </c>
-      <c r="K253" s="2" t="n">
+      <c r="K255" s="2" t="n">
         <v>876</v>
       </c>
-      <c r="L253" s="0" t="s">
-        <v>549</v>
-      </c>
-      <c r="P253" s="0" t="s">
+      <c r="L255" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="P255" s="0" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P253"/>
+  <autoFilter ref="A1:P255"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -12004,13 +12087,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.4898785425101"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
